--- a/Location Details/E Cedar St , Zionsville, IN 46077_sport.xlsx
+++ b/Location Details/E Cedar St , Zionsville, IN 46077_sport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,12 +525,12 @@
         <v>4.2</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -547,12 +547,12 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>508</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -629,20 +629,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Go West Sports</t>
+          <t>Hibbett Sports</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="F9" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -651,20 +651,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hibbett Sports</t>
+          <t>Indiana Sports Corp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -673,20 +673,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Indiana Sports Corp</t>
+          <t>Indy Indoor Sport</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Indy Indoor Sport</t>
+          <t>Indy Sport</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -708,7 +708,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Indy Sport</t>
+          <t>Indy Sport Group</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -730,7 +730,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -739,20 +739,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Indy Sport Group</t>
+          <t>Indy Sports Performance</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -761,20 +761,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Indy Sports Performance</t>
+          <t>KS&amp;E Sports</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -783,20 +783,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>KS&amp;E Sports</t>
+          <t>Larson and Sons Target Sports</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -805,20 +805,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Larson and Sons Target Sports</t>
+          <t>Looking Good Sports Llc</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -827,20 +827,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Looking Good Sports Llc</t>
+          <t>Marksman Shooting Sports</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -849,15 +849,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Marksman Shooting Sports</t>
+          <t>Midwest Sports Complex</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="F19" t="n">
-        <v>51</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20">
@@ -884,7 +884,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -906,29 +906,29 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLOSED_TEMPORARILY</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Oakley Store</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F22" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Oakley Store</t>
+          <t>Off The Wall Sports</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -945,12 +945,12 @@
         <v>4.6</v>
       </c>
       <c r="F23" t="n">
-        <v>77</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1143,12 +1143,12 @@
         <v>4.4</v>
       </c>
       <c r="F32" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1619,36 +1619,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The SportZone</t>
+          <t>Webster's Sporting Goods</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F54" t="n">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Webster's Sporting Goods</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F55" t="n">
         <v>28</v>
       </c>
     </row>
